--- a/ДМС/Хакасия/Амбулаторная помощь.xlsx
+++ b/ДМС/Хакасия/Амбулаторная помощь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\ДМС\Хакасия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AACCBC-307E-4CE3-B80A-9BF1E6CB11A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72978BD7-3E3C-47CC-8166-881496993218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Телефон</t>
   </si>
   <si>
-    <t>дцабакан.рф</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 +7 (3902) 21‒33‒60
 +7 (3902) 20‒23‒61</t>
@@ -122,15 +119,6 @@
  8 (3902) 242-008, 242-048, 242-205 </t>
   </si>
   <si>
-    <t>https://zankhakasia.ru</t>
-  </si>
-  <si>
-    <t>https://rzd-medicine.ru </t>
-  </si>
-  <si>
-    <t>"ДНК" Диагностический центр - Абакан - диагностичиский ...</t>
-  </si>
-  <si>
     <t>https://resbol.mz19.ru/</t>
   </si>
   <si>
@@ -138,23 +126,34 @@
   </si>
   <si>
     <t>8 (390) 222-44-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-bkmedika.ru</t>
   </si>
   <si>
     <t>8 (3902) 321166
 8 (950) 966-30-34</t>
   </si>
   <si>
-    <t>diolab19.ru</t>
-  </si>
-  <si>
     <t>8 (3902) 268-138</t>
   </si>
   <si>
     <t>8 (390) 224 82-54 (доб. 315) 8 (390) 224 82-54 (доб. 316)</t>
+  </si>
+  <si>
+    <t>дцабакан.рф/</t>
+  </si>
+  <si>
+    <t>https://zankhakasia.ru/</t>
+  </si>
+  <si>
+    <t>https://rzd-medicine.ru/</t>
+  </si>
+  <si>
+    <t>https://dnk19.ru/</t>
+  </si>
+  <si>
+    <t>https://asktel.ru/abakan/diagnosticheskij_centr/bikej_medika/</t>
+  </si>
+  <si>
+    <t>https://ruscatalog.org/abakan/2445860-diolab/#contacts/</t>
   </si>
 </sst>
 </file>
@@ -978,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,10 +1020,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -1061,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -1081,10 +1080,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
@@ -1102,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
@@ -1120,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -1140,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
@@ -1160,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
@@ -1180,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -1193,12 +1192,13 @@
   <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://rzd-medicine.ru/address/nuz-otdelencheskaja-poliklinika-na-st-abakan-oao-rzhd-otdelencheskaja-poliklinika" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://zankhakasia.ru/employer/detail/?companyId=ec557aba-5ddb-11e3-8128-005056876601" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" location="contacts/" xr:uid="{B6C65E7B-B0D2-4D0A-859D-266BC4439F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1348,27 +1348,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
-      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
-      <Description>6MRAV4MPJ4WK-605773199-208</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1418,6 +1397,27 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
+      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
+      <Description>6MRAV4MPJ4WK-605773199-208</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
@@ -1437,6 +1437,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1450,20 +1466,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ДМС/Хакасия/Амбулаторная помощь.xlsx
+++ b/ДМС/Хакасия/Амбулаторная помощь.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\ДМС\Хакасия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50GarderDV\Downloads\ДМС\Хакасия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72978BD7-3E3C-47CC-8166-881496993218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="НБ-Хакасия+" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'НБ-Хакасия+'!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'НБ-Хакасия+'!$A$1:$F$9</definedName>
     <definedName name="a.area">#REF!</definedName>
     <definedName name="b.area">#REF!</definedName>
   </definedNames>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>АМБУЛАТОРНАЯ ПОМОЩЬ</t>
   </si>
@@ -66,9 +65,6 @@
     <t>МЕДИЦИНСКИЙ ЦЕНТР ДОППЛЕР, ООО</t>
   </si>
   <si>
-    <t>г Абакан, ул Торосова, д 15, кв 302Н (Н (офис 107))</t>
-  </si>
-  <si>
     <t>ПОЛИКЛИНИКА РЖД-МЕДИЦИНА ГОРОДА АБАКАН, ЧУЗ</t>
   </si>
   <si>
@@ -93,73 +89,69 @@
     <t>https://hrono.su/</t>
   </si>
   <si>
-    <t xml:space="preserve">г Абакан, ул Чехова, 95 к2​1 </t>
-  </si>
-  <si>
     <t>Сайт</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>8 (3902) 31-31-05  8 (3902) 29-40-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 8 (3902) 242-008, 242-048, 242-205 </t>
+  </si>
+  <si>
+    <t>https://resbol.mz19.ru/</t>
+  </si>
+  <si>
+    <t>8 (3902 ) 305914</t>
+  </si>
+  <si>
+    <t>8 (390) 222-44-15</t>
+  </si>
+  <si>
+    <t>8 (3902) 321166
+8 (950) 966-30-34</t>
+  </si>
+  <si>
+    <t>8 (3902) 268-138</t>
+  </si>
+  <si>
+    <t>8 (390) 224 82-54 (доб. 315) 8 (390) 224 82-54 (доб. 316)</t>
+  </si>
+  <si>
+    <t>дцабакан.рф/</t>
+  </si>
+  <si>
+    <t>https://zankhakasia.ru/</t>
+  </si>
+  <si>
+    <t>https://rzd-medicine.ru/</t>
+  </si>
+  <si>
+    <t>https://dnk19.ru/</t>
+  </si>
+  <si>
+    <t>https://asktel.ru/abakan/diagnosticheskij_centr/bikej_medika/</t>
+  </si>
+  <si>
+    <t>https://ruscatalog.org/abakan/2445860-diolab/#contacts/</t>
   </si>
   <si>
     <t xml:space="preserve">
 +7 (3902) 21‒33‒60
-+7 (3902) 20‒23‒60</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-+7 (3902) 21‒33‒60
++7 (3902) 20‒23‒60
 +7 (3902) 20‒23‒61</t>
   </si>
   <si>
-    <t>8 (3902) 31-31-05  8 (3902) 29-40-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 8 (3902) 242-008, 242-048, 242-205 </t>
-  </si>
-  <si>
-    <t>https://resbol.mz19.ru/</t>
-  </si>
-  <si>
-    <t>8 (3902 ) 305914</t>
-  </si>
-  <si>
-    <t>8 (390) 222-44-15</t>
-  </si>
-  <si>
-    <t>8 (3902) 321166
-8 (950) 966-30-34</t>
-  </si>
-  <si>
-    <t>8 (3902) 268-138</t>
-  </si>
-  <si>
-    <t>8 (390) 224 82-54 (доб. 315) 8 (390) 224 82-54 (доб. 316)</t>
-  </si>
-  <si>
-    <t>дцабакан.рф/</t>
-  </si>
-  <si>
-    <t>https://zankhakasia.ru/</t>
-  </si>
-  <si>
-    <t>https://rzd-medicine.ru/</t>
-  </si>
-  <si>
-    <t>https://dnk19.ru/</t>
-  </si>
-  <si>
-    <t>https://asktel.ru/abakan/diagnosticheskij_centr/bikej_medika/</t>
-  </si>
-  <si>
-    <t>https://ruscatalog.org/abakan/2445860-diolab/#contacts/</t>
+    <t>г Абакан, ул Чехова, 95 к2​1 / ул Торосова, д 15, кв 302Н (Н (офис 107))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,8 +263,8 @@
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -293,13 +285,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -355,13 +347,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -417,13 +409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -479,13 +471,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -541,7 +533,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="152400"/>
@@ -598,7 +590,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="152400"/>
@@ -730,23 +722,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -782,23 +757,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -974,42 +932,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="5" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1020,16 +978,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1037,164 +995,144 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:F9"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" location="contacts/" xr:uid="{B6C65E7B-B0D2-4D0A-859D-266BC4439F89}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3" location="contacts/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1203,6 +1141,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E2008D7E4742AA41887FDC2E79A7A762" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="f9aaf2498e151e4c742fbf1c352ca431">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c95ad6c5f32494a945af1673268ec41" ns2:_="">
     <xsd:import namespace="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
@@ -1347,66 +1335,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
@@ -1418,7 +1347,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1436,23 +1382,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1466,4 +1396,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>